--- a/plantillas/lista3.xlsx
+++ b/plantillas/lista3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="116">
   <si>
     <t>OPCIÓN A</t>
   </si>
@@ -608,6 +608,9 @@
   </si>
   <si>
     <t>Sesión 4</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
   </si>
 </sst>
 </file>
@@ -2476,6 +2479,60 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="87" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="93" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="87" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="87" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="94" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="90" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2506,6 +2563,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2518,6 +2578,12 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="98" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="83" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="2" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2530,59 +2596,356 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="83" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="62" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="87" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="64" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="65" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="68" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="69" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="70" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="71" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="72" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="93" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="87" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="87" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="94" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="77" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="79" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="74" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="75" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="76" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="72" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="80" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2628,366 +2991,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="68" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="80" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="74" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="75" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="76" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="72" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="77" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="79" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="72" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="62" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="64" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="65" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="69" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="70" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="71" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="98" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="83" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name=" _x0007_LÓ_x0018_ÄþÍN^NuNVþˆHÁ_x0001__x0018_(n" xfId="1"/>
@@ -3433,7 +3436,7 @@
   <dimension ref="B1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="K26" sqref="K26:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -3460,18 +3463,18 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="2:17" ht="33" customHeight="1">
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="164" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
       <c r="L3" s="151"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -3486,17 +3489,17 @@
       <c r="B5" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="169" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="188"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
+      <c r="K5" s="171"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -3504,18 +3507,18 @@
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="184" t="s">
+      <c r="B6" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="189"/>
-      <c r="J6" s="189"/>
-      <c r="K6" s="190"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="173"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -3523,18 +3526,18 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="2:17" ht="12.75" customHeight="1">
-      <c r="B7" s="184"/>
-      <c r="C7" s="191" t="s">
+      <c r="B7" s="167"/>
+      <c r="C7" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="192"/>
-      <c r="K7" s="193"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="176"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -3542,7 +3545,7 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="184"/>
+      <c r="B8" s="167"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -3559,18 +3562,18 @@
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="2:17" ht="13.5" thickBot="1">
-      <c r="B9" s="185"/>
-      <c r="C9" s="194" t="s">
+      <c r="B9" s="168"/>
+      <c r="C9" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="195"/>
-      <c r="E9" s="195"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="195"/>
-      <c r="H9" s="195"/>
-      <c r="I9" s="195"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="196"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="179"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -3581,16 +3584,16 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="27.75" customHeight="1" thickBot="1">
-      <c r="C11" s="182"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="183"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="183"/>
-      <c r="K11" s="183"/>
-      <c r="L11" s="183"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="166"/>
+      <c r="L11" s="166"/>
     </row>
     <row r="12" spans="2:17" ht="19.5">
       <c r="B12" s="130"/>
@@ -3605,18 +3608,18 @@
       <c r="K12" s="144"/>
     </row>
     <row r="13" spans="2:17" ht="15">
-      <c r="B13" s="178" t="s">
+      <c r="B13" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="179"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="179"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="180"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="162"/>
+      <c r="K13" s="163"/>
     </row>
     <row r="14" spans="2:17" ht="15">
       <c r="B14" s="125"/>
@@ -3631,13 +3634,13 @@
       <c r="K14" s="145"/>
     </row>
     <row r="15" spans="2:17" ht="15">
-      <c r="B15" s="178" t="s">
+      <c r="B15" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="179"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
       <c r="G15" s="159"/>
       <c r="H15" s="159"/>
       <c r="I15" s="12"/>
@@ -3657,10 +3660,10 @@
       <c r="K16" s="145"/>
     </row>
     <row r="17" spans="2:11" ht="15">
-      <c r="B17" s="178" t="s">
+      <c r="B17" s="161" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="179"/>
+      <c r="C17" s="162"/>
       <c r="D17" s="134"/>
       <c r="E17" s="134"/>
       <c r="F17" s="134"/>
@@ -3683,17 +3686,17 @@
       <c r="K18" s="145"/>
     </row>
     <row r="19" spans="2:11" ht="15">
-      <c r="B19" s="178" t="s">
+      <c r="B19" s="161" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="179"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="179"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="179"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="162"/>
       <c r="K19" s="146"/>
     </row>
     <row r="20" spans="2:11" ht="15">
@@ -3753,22 +3756,22 @@
     </row>
     <row r="25" spans="2:11" ht="30.75" customHeight="1" thickBot="1">
       <c r="C25" s="7"/>
-      <c r="E25" s="169" t="s">
+      <c r="E25" s="189" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="332"/>
-      <c r="G25" s="332"/>
-      <c r="H25" s="332"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="170"/>
-      <c r="K25" s="171"/>
+      <c r="F25" s="190"/>
+      <c r="G25" s="190"/>
+      <c r="H25" s="190"/>
+      <c r="I25" s="191"/>
+      <c r="J25" s="191"/>
+      <c r="K25" s="192"/>
     </row>
     <row r="26" spans="2:11" ht="39" customHeight="1" thickBot="1">
-      <c r="B26" s="176" t="s">
+      <c r="B26" s="199" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="176"/>
-      <c r="D26" s="177"/>
+      <c r="C26" s="199"/>
+      <c r="D26" s="200"/>
       <c r="E26" s="149" t="s">
         <v>111</v>
       </c>
@@ -3781,14 +3784,14 @@
       <c r="H26" s="149" t="s">
         <v>114</v>
       </c>
-      <c r="I26" s="330" t="s">
+      <c r="I26" s="195" t="s">
         <v>99</v>
       </c>
-      <c r="J26" s="174" t="s">
+      <c r="J26" s="197" t="s">
         <v>105</v>
       </c>
-      <c r="K26" s="172" t="s">
-        <v>110</v>
+      <c r="K26" s="193" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="2:11" s="150" customFormat="1" ht="44.25" customHeight="1" thickBot="1">
@@ -3805,18 +3808,18 @@
       <c r="F27" s="149"/>
       <c r="G27" s="149"/>
       <c r="H27" s="149"/>
-      <c r="I27" s="331"/>
-      <c r="J27" s="175"/>
-      <c r="K27" s="173"/>
+      <c r="I27" s="196"/>
+      <c r="J27" s="198"/>
+      <c r="K27" s="194"/>
     </row>
     <row r="28" spans="2:11" ht="35.25" customHeight="1" thickBot="1">
       <c r="B28" s="152"/>
       <c r="C28" s="152"/>
       <c r="D28" s="152"/>
       <c r="E28" s="136"/>
-      <c r="F28" s="333"/>
-      <c r="G28" s="333"/>
-      <c r="H28" s="333"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
       <c r="I28" s="136"/>
       <c r="J28" s="136"/>
       <c r="K28" s="127"/>
@@ -4123,61 +4126,61 @@
       <c r="L53" s="8"/>
     </row>
     <row r="54" spans="2:14">
-      <c r="B54" s="160" t="s">
+      <c r="B54" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="161"/>
-      <c r="D54" s="161"/>
-      <c r="E54" s="161"/>
-      <c r="F54" s="161"/>
-      <c r="G54" s="161"/>
-      <c r="H54" s="161"/>
-      <c r="I54" s="161"/>
-      <c r="J54" s="161"/>
-      <c r="K54" s="162"/>
+      <c r="C54" s="181"/>
+      <c r="D54" s="181"/>
+      <c r="E54" s="181"/>
+      <c r="F54" s="181"/>
+      <c r="G54" s="181"/>
+      <c r="H54" s="181"/>
+      <c r="I54" s="181"/>
+      <c r="J54" s="181"/>
+      <c r="K54" s="182"/>
       <c r="L54" s="140"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
     </row>
     <row r="55" spans="2:14">
-      <c r="B55" s="163"/>
-      <c r="C55" s="164"/>
-      <c r="D55" s="164"/>
-      <c r="E55" s="164"/>
-      <c r="F55" s="164"/>
-      <c r="G55" s="164"/>
-      <c r="H55" s="164"/>
-      <c r="I55" s="164"/>
-      <c r="J55" s="164"/>
-      <c r="K55" s="165"/>
+      <c r="B55" s="183"/>
+      <c r="C55" s="184"/>
+      <c r="D55" s="184"/>
+      <c r="E55" s="184"/>
+      <c r="F55" s="184"/>
+      <c r="G55" s="184"/>
+      <c r="H55" s="184"/>
+      <c r="I55" s="184"/>
+      <c r="J55" s="184"/>
+      <c r="K55" s="185"/>
       <c r="L55" s="140"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
     </row>
     <row r="56" spans="2:14">
-      <c r="B56" s="163"/>
-      <c r="C56" s="164"/>
-      <c r="D56" s="164"/>
-      <c r="E56" s="164"/>
-      <c r="F56" s="164"/>
-      <c r="G56" s="164"/>
-      <c r="H56" s="164"/>
-      <c r="I56" s="164"/>
-      <c r="J56" s="164"/>
-      <c r="K56" s="165"/>
+      <c r="B56" s="183"/>
+      <c r="C56" s="184"/>
+      <c r="D56" s="184"/>
+      <c r="E56" s="184"/>
+      <c r="F56" s="184"/>
+      <c r="G56" s="184"/>
+      <c r="H56" s="184"/>
+      <c r="I56" s="184"/>
+      <c r="J56" s="184"/>
+      <c r="K56" s="185"/>
       <c r="L56" s="140"/>
     </row>
     <row r="57" spans="2:14" ht="13.5" thickBot="1">
-      <c r="B57" s="166"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
-      <c r="E57" s="167"/>
-      <c r="F57" s="167"/>
-      <c r="G57" s="167"/>
-      <c r="H57" s="167"/>
-      <c r="I57" s="167"/>
-      <c r="J57" s="167"/>
-      <c r="K57" s="168"/>
+      <c r="B57" s="186"/>
+      <c r="C57" s="187"/>
+      <c r="D57" s="187"/>
+      <c r="E57" s="187"/>
+      <c r="F57" s="187"/>
+      <c r="G57" s="187"/>
+      <c r="H57" s="187"/>
+      <c r="I57" s="187"/>
+      <c r="J57" s="187"/>
+      <c r="K57" s="188"/>
       <c r="L57" s="140"/>
     </row>
     <row r="58" spans="2:14">
@@ -4211,6 +4214,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B54:K57"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B19:J19"/>
@@ -4221,12 +4230,6 @@
     <mergeCell ref="C5:K6"/>
     <mergeCell ref="C7:K7"/>
     <mergeCell ref="C9:K9"/>
-    <mergeCell ref="B54:K57"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.16" top="0.39" bottom="1" header="0" footer="0"/>
@@ -4268,18 +4271,18 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="2:17" ht="30">
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="164" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
       <c r="L3" s="151"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -4294,17 +4297,17 @@
       <c r="B5" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="169" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="188"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
+      <c r="K5" s="171"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -4312,18 +4315,18 @@
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="184" t="s">
+      <c r="B6" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="189"/>
-      <c r="J6" s="189"/>
-      <c r="K6" s="190"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="173"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -4331,18 +4334,18 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="2:17">
-      <c r="B7" s="184"/>
-      <c r="C7" s="191" t="s">
+      <c r="B7" s="167"/>
+      <c r="C7" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="192"/>
-      <c r="K7" s="193"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="176"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -4350,7 +4353,7 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="184"/>
+      <c r="B8" s="167"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -4367,18 +4370,18 @@
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="2:17" ht="13.5" thickBot="1">
-      <c r="B9" s="185"/>
-      <c r="C9" s="194" t="s">
+      <c r="B9" s="168"/>
+      <c r="C9" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="195"/>
-      <c r="E9" s="195"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="195"/>
-      <c r="H9" s="195"/>
-      <c r="I9" s="195"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="196"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="179"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -4389,16 +4392,16 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="15" thickBot="1">
-      <c r="C11" s="182"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="183"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="183"/>
-      <c r="K11" s="183"/>
-      <c r="L11" s="183"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="166"/>
+      <c r="L11" s="166"/>
     </row>
     <row r="12" spans="2:17" ht="19.5">
       <c r="B12" s="130"/>
@@ -4413,19 +4416,19 @@
       <c r="K12" s="144"/>
     </row>
     <row r="13" spans="2:17" ht="15">
-      <c r="B13" s="178" t="str">
+      <c r="B13" s="161" t="str">
         <f>'CONTROL DE FIRMAS'!B13:K13</f>
         <v xml:space="preserve">DENOMINACIÓN DE LA ACCIÓN FORMATIVA: </v>
       </c>
-      <c r="C13" s="179"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="179"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="180"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="162"/>
+      <c r="K13" s="163"/>
     </row>
     <row r="14" spans="2:17" ht="15">
       <c r="B14" s="125"/>
@@ -4440,14 +4443,14 @@
       <c r="K14" s="145"/>
     </row>
     <row r="15" spans="2:17" ht="15">
-      <c r="B15" s="178" t="str">
+      <c r="B15" s="161" t="str">
         <f>'CONTROL DE FIRMAS'!B15:F15</f>
         <v xml:space="preserve">Nº:  GRUPO:        FECHA DE INICIO:             FECHA FIN: </v>
       </c>
-      <c r="C15" s="179"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
       <c r="G15" s="159"/>
       <c r="H15" s="159"/>
       <c r="I15" s="12"/>
@@ -4467,11 +4470,11 @@
       <c r="K16" s="145"/>
     </row>
     <row r="17" spans="2:11" ht="15">
-      <c r="B17" s="178" t="str">
+      <c r="B17" s="161" t="str">
         <f>'CONTROL DE FIRMAS'!B17:C17</f>
         <v>FORMADOR/RESPONSABLE DE FORMACIÓN:</v>
       </c>
-      <c r="C17" s="179"/>
+      <c r="C17" s="162"/>
       <c r="D17" s="155"/>
       <c r="E17" s="155"/>
       <c r="F17" s="155"/>
@@ -4494,18 +4497,18 @@
       <c r="K18" s="145"/>
     </row>
     <row r="19" spans="2:11" ht="15">
-      <c r="B19" s="178" t="str">
+      <c r="B19" s="161" t="str">
         <f>'CONTROL DE FIRMAS'!B19:J19</f>
         <v xml:space="preserve">SESIÓN Nº: ____ FECHA:     MAÑANA/TARDE:  MAÑANA   HORARIO: </v>
       </c>
-      <c r="C19" s="179"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="179"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="179"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="162"/>
       <c r="K19" s="156"/>
     </row>
     <row r="20" spans="2:11" ht="15">
@@ -4565,22 +4568,22 @@
     </row>
     <row r="25" spans="2:11" ht="39" customHeight="1" thickBot="1">
       <c r="C25" s="7"/>
-      <c r="E25" s="169" t="s">
+      <c r="E25" s="189" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="170"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="170"/>
-      <c r="K25" s="171"/>
+      <c r="F25" s="191"/>
+      <c r="G25" s="191"/>
+      <c r="H25" s="191"/>
+      <c r="I25" s="191"/>
+      <c r="J25" s="191"/>
+      <c r="K25" s="192"/>
     </row>
     <row r="26" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B26" s="176" t="s">
+      <c r="B26" s="199" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="176"/>
-      <c r="D26" s="177"/>
+      <c r="C26" s="199"/>
+      <c r="D26" s="200"/>
       <c r="E26" s="149" t="s">
         <v>111</v>
       </c>
@@ -4593,13 +4596,13 @@
       <c r="H26" s="149" t="s">
         <v>114</v>
       </c>
-      <c r="I26" s="174" t="s">
+      <c r="I26" s="197" t="s">
         <v>99</v>
       </c>
-      <c r="J26" s="174" t="s">
+      <c r="J26" s="197" t="s">
         <v>105</v>
       </c>
-      <c r="K26" s="172" t="s">
+      <c r="K26" s="193" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4629,9 +4632,9 @@
         <f>'CONTROL DE FIRMAS'!H27</f>
         <v>0</v>
       </c>
-      <c r="I27" s="175"/>
-      <c r="J27" s="175"/>
-      <c r="K27" s="173"/>
+      <c r="I27" s="198"/>
+      <c r="J27" s="198"/>
+      <c r="K27" s="194"/>
     </row>
     <row r="28" spans="2:11" ht="23.25" customHeight="1" thickBot="1">
       <c r="B28" s="152"/>
@@ -4947,61 +4950,61 @@
       <c r="L53" s="8"/>
     </row>
     <row r="54" spans="2:14">
-      <c r="B54" s="160" t="s">
+      <c r="B54" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="161"/>
-      <c r="D54" s="161"/>
-      <c r="E54" s="161"/>
-      <c r="F54" s="161"/>
-      <c r="G54" s="161"/>
-      <c r="H54" s="161"/>
-      <c r="I54" s="161"/>
-      <c r="J54" s="161"/>
-      <c r="K54" s="162"/>
+      <c r="C54" s="181"/>
+      <c r="D54" s="181"/>
+      <c r="E54" s="181"/>
+      <c r="F54" s="181"/>
+      <c r="G54" s="181"/>
+      <c r="H54" s="181"/>
+      <c r="I54" s="181"/>
+      <c r="J54" s="181"/>
+      <c r="K54" s="182"/>
       <c r="L54" s="140"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
     </row>
     <row r="55" spans="2:14">
-      <c r="B55" s="163"/>
-      <c r="C55" s="164"/>
-      <c r="D55" s="164"/>
-      <c r="E55" s="164"/>
-      <c r="F55" s="164"/>
-      <c r="G55" s="164"/>
-      <c r="H55" s="164"/>
-      <c r="I55" s="164"/>
-      <c r="J55" s="164"/>
-      <c r="K55" s="165"/>
+      <c r="B55" s="183"/>
+      <c r="C55" s="184"/>
+      <c r="D55" s="184"/>
+      <c r="E55" s="184"/>
+      <c r="F55" s="184"/>
+      <c r="G55" s="184"/>
+      <c r="H55" s="184"/>
+      <c r="I55" s="184"/>
+      <c r="J55" s="184"/>
+      <c r="K55" s="185"/>
       <c r="L55" s="140"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
     </row>
     <row r="56" spans="2:14">
-      <c r="B56" s="163"/>
-      <c r="C56" s="164"/>
-      <c r="D56" s="164"/>
-      <c r="E56" s="164"/>
-      <c r="F56" s="164"/>
-      <c r="G56" s="164"/>
-      <c r="H56" s="164"/>
-      <c r="I56" s="164"/>
-      <c r="J56" s="164"/>
-      <c r="K56" s="165"/>
+      <c r="B56" s="183"/>
+      <c r="C56" s="184"/>
+      <c r="D56" s="184"/>
+      <c r="E56" s="184"/>
+      <c r="F56" s="184"/>
+      <c r="G56" s="184"/>
+      <c r="H56" s="184"/>
+      <c r="I56" s="184"/>
+      <c r="J56" s="184"/>
+      <c r="K56" s="185"/>
       <c r="L56" s="140"/>
     </row>
     <row r="57" spans="2:14" ht="13.5" thickBot="1">
-      <c r="B57" s="166"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
-      <c r="E57" s="167"/>
-      <c r="F57" s="167"/>
-      <c r="G57" s="167"/>
-      <c r="H57" s="167"/>
-      <c r="I57" s="167"/>
-      <c r="J57" s="167"/>
-      <c r="K57" s="168"/>
+      <c r="B57" s="186"/>
+      <c r="C57" s="187"/>
+      <c r="D57" s="187"/>
+      <c r="E57" s="187"/>
+      <c r="F57" s="187"/>
+      <c r="G57" s="187"/>
+      <c r="H57" s="187"/>
+      <c r="I57" s="187"/>
+      <c r="J57" s="187"/>
+      <c r="K57" s="188"/>
       <c r="L57" s="140"/>
     </row>
     <row r="58" spans="2:14">
@@ -5035,6 +5038,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="C5:K6"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="C9:K9"/>
     <mergeCell ref="B54:K57"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B15:F15"/>
@@ -5045,12 +5054,6 @@
     <mergeCell ref="I26:I27"/>
     <mergeCell ref="J26:J27"/>
     <mergeCell ref="K26:K27"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="C5:K6"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="C9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5089,18 +5092,18 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="2:17" ht="30">
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="164" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
       <c r="L3" s="151"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -5115,17 +5118,17 @@
       <c r="B5" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="169" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="188"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
+      <c r="K5" s="171"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -5133,18 +5136,18 @@
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="184" t="s">
+      <c r="B6" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="189"/>
-      <c r="J6" s="189"/>
-      <c r="K6" s="190"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="173"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -5152,18 +5155,18 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="2:17">
-      <c r="B7" s="184"/>
-      <c r="C7" s="191" t="s">
+      <c r="B7" s="167"/>
+      <c r="C7" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="192"/>
-      <c r="K7" s="193"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="176"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -5171,7 +5174,7 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="184"/>
+      <c r="B8" s="167"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -5188,18 +5191,18 @@
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="2:17" ht="13.5" thickBot="1">
-      <c r="B9" s="185"/>
-      <c r="C9" s="194" t="s">
+      <c r="B9" s="168"/>
+      <c r="C9" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="195"/>
-      <c r="E9" s="195"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="195"/>
-      <c r="H9" s="195"/>
-      <c r="I9" s="195"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="196"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="179"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -5210,16 +5213,16 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="15" thickBot="1">
-      <c r="C11" s="182"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="183"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="183"/>
-      <c r="K11" s="183"/>
-      <c r="L11" s="183"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="166"/>
+      <c r="L11" s="166"/>
     </row>
     <row r="12" spans="2:17" ht="19.5">
       <c r="B12" s="130"/>
@@ -5234,19 +5237,19 @@
       <c r="K12" s="144"/>
     </row>
     <row r="13" spans="2:17" ht="15">
-      <c r="B13" s="178" t="str">
+      <c r="B13" s="161" t="str">
         <f>'CONTROL DE FIRMAS'!B13:K13</f>
         <v xml:space="preserve">DENOMINACIÓN DE LA ACCIÓN FORMATIVA: </v>
       </c>
-      <c r="C13" s="179"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="179"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="180"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="162"/>
+      <c r="K13" s="163"/>
     </row>
     <row r="14" spans="2:17" ht="15">
       <c r="B14" s="125"/>
@@ -5261,14 +5264,14 @@
       <c r="K14" s="145"/>
     </row>
     <row r="15" spans="2:17" ht="15">
-      <c r="B15" s="178" t="str">
+      <c r="B15" s="161" t="str">
         <f>'CONTROL DE FIRMAS'!B15:F15</f>
         <v xml:space="preserve">Nº:  GRUPO:        FECHA DE INICIO:             FECHA FIN: </v>
       </c>
-      <c r="C15" s="179"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
       <c r="G15" s="159"/>
       <c r="H15" s="159"/>
       <c r="I15" s="12"/>
@@ -5288,11 +5291,11 @@
       <c r="K16" s="145"/>
     </row>
     <row r="17" spans="2:11" ht="15">
-      <c r="B17" s="178" t="str">
+      <c r="B17" s="161" t="str">
         <f>'CONTROL DE FIRMAS'!B17:C17</f>
         <v>FORMADOR/RESPONSABLE DE FORMACIÓN:</v>
       </c>
-      <c r="C17" s="179"/>
+      <c r="C17" s="162"/>
       <c r="D17" s="157"/>
       <c r="E17" s="157"/>
       <c r="F17" s="157"/>
@@ -5315,18 +5318,18 @@
       <c r="K18" s="145"/>
     </row>
     <row r="19" spans="2:11" ht="15">
-      <c r="B19" s="178" t="str">
+      <c r="B19" s="161" t="str">
         <f>'CONTROL DE FIRMAS'!B19:J19</f>
         <v xml:space="preserve">SESIÓN Nº: ____ FECHA:     MAÑANA/TARDE:  MAÑANA   HORARIO: </v>
       </c>
-      <c r="C19" s="179"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="179"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="179"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="162"/>
       <c r="K19" s="158"/>
     </row>
     <row r="20" spans="2:11" ht="15">
@@ -5386,22 +5389,22 @@
     </row>
     <row r="25" spans="2:11" ht="39" customHeight="1" thickBot="1">
       <c r="C25" s="7"/>
-      <c r="E25" s="169" t="s">
+      <c r="E25" s="189" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="170"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="170"/>
-      <c r="K25" s="171"/>
+      <c r="F25" s="191"/>
+      <c r="G25" s="191"/>
+      <c r="H25" s="191"/>
+      <c r="I25" s="191"/>
+      <c r="J25" s="191"/>
+      <c r="K25" s="192"/>
     </row>
     <row r="26" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B26" s="176" t="s">
+      <c r="B26" s="199" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="176"/>
-      <c r="D26" s="177"/>
+      <c r="C26" s="199"/>
+      <c r="D26" s="200"/>
       <c r="E26" s="149" t="s">
         <v>111</v>
       </c>
@@ -5414,13 +5417,13 @@
       <c r="H26" s="149" t="s">
         <v>114</v>
       </c>
-      <c r="I26" s="174" t="s">
+      <c r="I26" s="197" t="s">
         <v>99</v>
       </c>
-      <c r="J26" s="174" t="s">
+      <c r="J26" s="197" t="s">
         <v>105</v>
       </c>
-      <c r="K26" s="172" t="s">
+      <c r="K26" s="193" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5450,9 +5453,9 @@
         <f>'CONTROL DE FIRMAS'!H27</f>
         <v>0</v>
       </c>
-      <c r="I27" s="175"/>
-      <c r="J27" s="175"/>
-      <c r="K27" s="173"/>
+      <c r="I27" s="198"/>
+      <c r="J27" s="198"/>
+      <c r="K27" s="194"/>
     </row>
     <row r="28" spans="2:11" ht="23.25" customHeight="1" thickBot="1">
       <c r="B28" s="152"/>
@@ -5768,61 +5771,61 @@
       <c r="L53" s="8"/>
     </row>
     <row r="54" spans="2:14">
-      <c r="B54" s="160" t="s">
+      <c r="B54" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="161"/>
-      <c r="D54" s="161"/>
-      <c r="E54" s="161"/>
-      <c r="F54" s="161"/>
-      <c r="G54" s="161"/>
-      <c r="H54" s="161"/>
-      <c r="I54" s="161"/>
-      <c r="J54" s="161"/>
-      <c r="K54" s="162"/>
+      <c r="C54" s="181"/>
+      <c r="D54" s="181"/>
+      <c r="E54" s="181"/>
+      <c r="F54" s="181"/>
+      <c r="G54" s="181"/>
+      <c r="H54" s="181"/>
+      <c r="I54" s="181"/>
+      <c r="J54" s="181"/>
+      <c r="K54" s="182"/>
       <c r="L54" s="140"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
     </row>
     <row r="55" spans="2:14">
-      <c r="B55" s="163"/>
-      <c r="C55" s="164"/>
-      <c r="D55" s="164"/>
-      <c r="E55" s="164"/>
-      <c r="F55" s="164"/>
-      <c r="G55" s="164"/>
-      <c r="H55" s="164"/>
-      <c r="I55" s="164"/>
-      <c r="J55" s="164"/>
-      <c r="K55" s="165"/>
+      <c r="B55" s="183"/>
+      <c r="C55" s="184"/>
+      <c r="D55" s="184"/>
+      <c r="E55" s="184"/>
+      <c r="F55" s="184"/>
+      <c r="G55" s="184"/>
+      <c r="H55" s="184"/>
+      <c r="I55" s="184"/>
+      <c r="J55" s="184"/>
+      <c r="K55" s="185"/>
       <c r="L55" s="140"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
     </row>
     <row r="56" spans="2:14">
-      <c r="B56" s="163"/>
-      <c r="C56" s="164"/>
-      <c r="D56" s="164"/>
-      <c r="E56" s="164"/>
-      <c r="F56" s="164"/>
-      <c r="G56" s="164"/>
-      <c r="H56" s="164"/>
-      <c r="I56" s="164"/>
-      <c r="J56" s="164"/>
-      <c r="K56" s="165"/>
+      <c r="B56" s="183"/>
+      <c r="C56" s="184"/>
+      <c r="D56" s="184"/>
+      <c r="E56" s="184"/>
+      <c r="F56" s="184"/>
+      <c r="G56" s="184"/>
+      <c r="H56" s="184"/>
+      <c r="I56" s="184"/>
+      <c r="J56" s="184"/>
+      <c r="K56" s="185"/>
       <c r="L56" s="140"/>
     </row>
     <row r="57" spans="2:14" ht="13.5" thickBot="1">
-      <c r="B57" s="166"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
-      <c r="E57" s="167"/>
-      <c r="F57" s="167"/>
-      <c r="G57" s="167"/>
-      <c r="H57" s="167"/>
-      <c r="I57" s="167"/>
-      <c r="J57" s="167"/>
-      <c r="K57" s="168"/>
+      <c r="B57" s="186"/>
+      <c r="C57" s="187"/>
+      <c r="D57" s="187"/>
+      <c r="E57" s="187"/>
+      <c r="F57" s="187"/>
+      <c r="G57" s="187"/>
+      <c r="H57" s="187"/>
+      <c r="I57" s="187"/>
+      <c r="J57" s="187"/>
+      <c r="K57" s="188"/>
       <c r="L57" s="140"/>
     </row>
     <row r="58" spans="2:14">
@@ -5856,12 +5859,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="C5:K6"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="C9:K9"/>
     <mergeCell ref="B54:K57"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B15:F15"/>
@@ -5872,6 +5869,12 @@
     <mergeCell ref="I26:I27"/>
     <mergeCell ref="J26:J27"/>
     <mergeCell ref="K26:K27"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="C5:K6"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="C9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5898,75 +5901,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="48" customHeight="1">
-      <c r="A1" s="315"/>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="316"/>
-      <c r="F1" s="316"/>
-      <c r="G1" s="316"/>
-      <c r="H1" s="316"/>
-      <c r="I1" s="316"/>
-      <c r="J1" s="316"/>
-      <c r="K1" s="316"/>
-      <c r="L1" s="316"/>
-      <c r="M1" s="316"/>
-      <c r="N1" s="317"/>
+      <c r="A1" s="201"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="203"/>
     </row>
     <row r="2" spans="1:20" ht="51" customHeight="1">
-      <c r="A2" s="327" t="s">
+      <c r="A2" s="213" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="328"/>
-      <c r="C2" s="328"/>
-      <c r="D2" s="328"/>
-      <c r="E2" s="328"/>
-      <c r="F2" s="328"/>
-      <c r="G2" s="328"/>
-      <c r="H2" s="328"/>
-      <c r="I2" s="328"/>
-      <c r="J2" s="328"/>
-      <c r="K2" s="328"/>
-      <c r="L2" s="328"/>
-      <c r="M2" s="328"/>
-      <c r="N2" s="329"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="215"/>
       <c r="O2" s="119"/>
     </row>
     <row r="3" spans="1:20" ht="39.75" customHeight="1">
-      <c r="A3" s="318" t="s">
+      <c r="A3" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="319"/>
-      <c r="C3" s="319"/>
-      <c r="D3" s="319"/>
-      <c r="E3" s="319"/>
-      <c r="F3" s="319"/>
-      <c r="G3" s="319"/>
-      <c r="H3" s="319"/>
-      <c r="I3" s="319"/>
-      <c r="J3" s="319"/>
-      <c r="K3" s="319"/>
-      <c r="L3" s="319"/>
-      <c r="M3" s="319"/>
-      <c r="N3" s="320"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="205"/>
+      <c r="M3" s="205"/>
+      <c r="N3" s="206"/>
     </row>
     <row r="4" spans="1:20" ht="40.5" customHeight="1">
-      <c r="A4" s="321" t="s">
+      <c r="A4" s="207" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="322"/>
-      <c r="C4" s="322"/>
-      <c r="D4" s="322"/>
-      <c r="E4" s="322"/>
-      <c r="F4" s="322"/>
-      <c r="G4" s="322"/>
-      <c r="H4" s="322"/>
-      <c r="I4" s="322"/>
-      <c r="J4" s="322"/>
-      <c r="K4" s="322"/>
-      <c r="L4" s="322"/>
-      <c r="M4" s="322"/>
-      <c r="N4" s="323"/>
+      <c r="B4" s="208"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="208"/>
+      <c r="K4" s="208"/>
+      <c r="L4" s="208"/>
+      <c r="M4" s="208"/>
+      <c r="N4" s="209"/>
       <c r="O4" s="120"/>
       <c r="P4" s="120"/>
       <c r="Q4" s="120"/>
@@ -5974,20 +5977,20 @@
       <c r="S4" s="120"/>
     </row>
     <row r="5" spans="1:20" s="121" customFormat="1" ht="3" customHeight="1">
-      <c r="A5" s="324"/>
-      <c r="B5" s="325"/>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
-      <c r="G5" s="325"/>
-      <c r="H5" s="325"/>
-      <c r="I5" s="325"/>
-      <c r="J5" s="325"/>
-      <c r="K5" s="325"/>
-      <c r="L5" s="325"/>
-      <c r="M5" s="325"/>
-      <c r="N5" s="326"/>
+      <c r="A5" s="210"/>
+      <c r="B5" s="211"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="211"/>
+      <c r="K5" s="211"/>
+      <c r="L5" s="211"/>
+      <c r="M5" s="211"/>
+      <c r="N5" s="212"/>
       <c r="O5" s="115"/>
       <c r="P5" s="115"/>
       <c r="Q5" s="115"/>
@@ -5995,22 +5998,22 @@
       <c r="S5" s="115"/>
     </row>
     <row r="6" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A6" s="300" t="s">
+      <c r="A6" s="216" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="301"/>
-      <c r="C6" s="302"/>
-      <c r="D6" s="301"/>
-      <c r="E6" s="301"/>
-      <c r="F6" s="302"/>
-      <c r="G6" s="302"/>
-      <c r="H6" s="302"/>
-      <c r="I6" s="302"/>
-      <c r="J6" s="302"/>
-      <c r="K6" s="302"/>
-      <c r="L6" s="302"/>
-      <c r="M6" s="302"/>
-      <c r="N6" s="303"/>
+      <c r="B6" s="217"/>
+      <c r="C6" s="218"/>
+      <c r="D6" s="217"/>
+      <c r="E6" s="217"/>
+      <c r="F6" s="218"/>
+      <c r="G6" s="218"/>
+      <c r="H6" s="218"/>
+      <c r="I6" s="218"/>
+      <c r="J6" s="218"/>
+      <c r="K6" s="218"/>
+      <c r="L6" s="218"/>
+      <c r="M6" s="218"/>
+      <c r="N6" s="219"/>
       <c r="O6" s="120"/>
       <c r="P6" s="120"/>
       <c r="Q6" s="120"/>
@@ -6018,24 +6021,24 @@
       <c r="S6" s="120"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="306" t="s">
+      <c r="A7" s="222" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="307"/>
+      <c r="B7" s="223"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="308" t="s">
+      <c r="D7" s="224" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="309"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="215"/>
-      <c r="I7" s="215"/>
-      <c r="J7" s="215"/>
-      <c r="K7" s="215"/>
-      <c r="L7" s="215"/>
-      <c r="M7" s="215"/>
-      <c r="N7" s="216"/>
+      <c r="E7" s="225"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="227"/>
+      <c r="H7" s="227"/>
+      <c r="I7" s="227"/>
+      <c r="J7" s="227"/>
+      <c r="K7" s="227"/>
+      <c r="L7" s="227"/>
+      <c r="M7" s="227"/>
+      <c r="N7" s="228"/>
       <c r="O7" s="120"/>
       <c r="P7" s="120"/>
       <c r="Q7" s="120"/>
@@ -6046,23 +6049,23 @@
       <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="214"/>
-      <c r="C8" s="216"/>
-      <c r="D8" s="310" t="s">
+      <c r="B8" s="226"/>
+      <c r="C8" s="228"/>
+      <c r="D8" s="229" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="311"/>
+      <c r="E8" s="230"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="312" t="s">
+      <c r="G8" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="313"/>
-      <c r="I8" s="313"/>
-      <c r="J8" s="314"/>
-      <c r="K8" s="214"/>
-      <c r="L8" s="215"/>
-      <c r="M8" s="215"/>
-      <c r="N8" s="216"/>
+      <c r="H8" s="232"/>
+      <c r="I8" s="232"/>
+      <c r="J8" s="233"/>
+      <c r="K8" s="226"/>
+      <c r="L8" s="227"/>
+      <c r="M8" s="227"/>
+      <c r="N8" s="228"/>
       <c r="O8" s="120"/>
       <c r="P8" s="120"/>
       <c r="Q8" s="120"/>
@@ -6070,22 +6073,22 @@
       <c r="S8" s="120"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="304" t="s">
+      <c r="A9" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="305"/>
-      <c r="C9" s="214"/>
-      <c r="D9" s="215"/>
-      <c r="E9" s="215"/>
-      <c r="F9" s="215"/>
-      <c r="G9" s="215"/>
-      <c r="H9" s="215"/>
-      <c r="I9" s="215"/>
-      <c r="J9" s="215"/>
-      <c r="K9" s="215"/>
-      <c r="L9" s="215"/>
-      <c r="M9" s="215"/>
-      <c r="N9" s="216"/>
+      <c r="B9" s="221"/>
+      <c r="C9" s="226"/>
+      <c r="D9" s="227"/>
+      <c r="E9" s="227"/>
+      <c r="F9" s="227"/>
+      <c r="G9" s="227"/>
+      <c r="H9" s="227"/>
+      <c r="I9" s="227"/>
+      <c r="J9" s="227"/>
+      <c r="K9" s="227"/>
+      <c r="L9" s="227"/>
+      <c r="M9" s="227"/>
+      <c r="N9" s="228"/>
       <c r="O9" s="120"/>
       <c r="P9" s="115"/>
       <c r="Q9" s="120"/>
@@ -6093,22 +6096,22 @@
       <c r="S9" s="120"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="212" t="s">
+      <c r="A10" s="302" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="213"/>
-      <c r="C10" s="214"/>
-      <c r="D10" s="215"/>
-      <c r="E10" s="215"/>
-      <c r="F10" s="215"/>
-      <c r="G10" s="215"/>
-      <c r="H10" s="215"/>
-      <c r="I10" s="215"/>
-      <c r="J10" s="215"/>
-      <c r="K10" s="215"/>
-      <c r="L10" s="215"/>
-      <c r="M10" s="215"/>
-      <c r="N10" s="216"/>
+      <c r="B10" s="303"/>
+      <c r="C10" s="226"/>
+      <c r="D10" s="227"/>
+      <c r="E10" s="227"/>
+      <c r="F10" s="227"/>
+      <c r="G10" s="227"/>
+      <c r="H10" s="227"/>
+      <c r="I10" s="227"/>
+      <c r="J10" s="227"/>
+      <c r="K10" s="227"/>
+      <c r="L10" s="227"/>
+      <c r="M10" s="227"/>
+      <c r="N10" s="228"/>
       <c r="O10" s="120"/>
       <c r="P10" s="120"/>
       <c r="Q10" s="120"/>
@@ -6161,22 +6164,22 @@
       <c r="T12" s="115"/>
     </row>
     <row r="13" spans="1:20" ht="21" customHeight="1">
-      <c r="A13" s="217" t="s">
+      <c r="A13" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="218"/>
-      <c r="C13" s="218"/>
-      <c r="D13" s="218"/>
-      <c r="E13" s="218"/>
-      <c r="F13" s="218"/>
-      <c r="G13" s="218"/>
-      <c r="H13" s="218"/>
-      <c r="I13" s="218"/>
-      <c r="J13" s="218"/>
-      <c r="K13" s="218"/>
-      <c r="L13" s="218"/>
-      <c r="M13" s="218"/>
-      <c r="N13" s="219"/>
+      <c r="B13" s="305"/>
+      <c r="C13" s="305"/>
+      <c r="D13" s="305"/>
+      <c r="E13" s="305"/>
+      <c r="F13" s="305"/>
+      <c r="G13" s="305"/>
+      <c r="H13" s="305"/>
+      <c r="I13" s="305"/>
+      <c r="J13" s="305"/>
+      <c r="K13" s="305"/>
+      <c r="L13" s="305"/>
+      <c r="M13" s="305"/>
+      <c r="N13" s="306"/>
       <c r="O13" s="120"/>
       <c r="P13" s="120"/>
       <c r="Q13" s="120"/>
@@ -6211,10 +6214,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="29"/>
-      <c r="C15" s="220" t="s">
+      <c r="C15" s="307" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="221"/>
+      <c r="D15" s="308"/>
       <c r="E15" s="30"/>
       <c r="F15" s="31" t="s">
         <v>18</v>
@@ -6242,14 +6245,14 @@
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="237" t="s">
+      <c r="F16" s="241" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="237"/>
-      <c r="H16" s="237"/>
-      <c r="I16" s="237"/>
-      <c r="J16" s="237"/>
-      <c r="K16" s="238"/>
+      <c r="G16" s="241"/>
+      <c r="H16" s="241"/>
+      <c r="I16" s="241"/>
+      <c r="J16" s="241"/>
+      <c r="K16" s="242"/>
       <c r="L16" s="38"/>
       <c r="M16" s="39"/>
       <c r="N16" s="34"/>
@@ -6268,14 +6271,14 @@
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
-      <c r="F17" s="237" t="s">
+      <c r="F17" s="241" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="237"/>
-      <c r="H17" s="237"/>
-      <c r="I17" s="237"/>
-      <c r="J17" s="237"/>
-      <c r="K17" s="238"/>
+      <c r="G17" s="241"/>
+      <c r="H17" s="241"/>
+      <c r="I17" s="241"/>
+      <c r="J17" s="241"/>
+      <c r="K17" s="242"/>
       <c r="L17" s="38"/>
       <c r="M17" s="39"/>
       <c r="N17" s="34"/>
@@ -6287,21 +6290,21 @@
       <c r="T17" s="120"/>
     </row>
     <row r="18" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A18" s="239" t="s">
+      <c r="A18" s="237" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="240"/>
-      <c r="C18" s="240"/>
-      <c r="D18" s="287"/>
+      <c r="B18" s="238"/>
+      <c r="C18" s="238"/>
+      <c r="D18" s="239"/>
       <c r="E18" s="44"/>
-      <c r="F18" s="289" t="s">
+      <c r="F18" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="289"/>
-      <c r="H18" s="289"/>
-      <c r="I18" s="289"/>
-      <c r="J18" s="289"/>
-      <c r="K18" s="290"/>
+      <c r="G18" s="244"/>
+      <c r="H18" s="244"/>
+      <c r="I18" s="244"/>
+      <c r="J18" s="244"/>
+      <c r="K18" s="245"/>
       <c r="L18" s="38"/>
       <c r="M18" s="39"/>
       <c r="N18" s="34"/>
@@ -6313,11 +6316,11 @@
       <c r="T18" s="120"/>
     </row>
     <row r="19" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A19" s="241" t="s">
+      <c r="A19" s="240" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="237"/>
-      <c r="C19" s="238"/>
+      <c r="B19" s="241"/>
+      <c r="C19" s="242"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="32"/>
@@ -6337,21 +6340,21 @@
       <c r="T19" s="120"/>
     </row>
     <row r="20" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A20" s="241" t="s">
+      <c r="A20" s="240" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="237"/>
-      <c r="C20" s="238"/>
+      <c r="B20" s="241"/>
+      <c r="C20" s="242"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
-      <c r="F20" s="288" t="s">
+      <c r="F20" s="243" t="s">
         <v>88</v>
       </c>
-      <c r="G20" s="288"/>
-      <c r="H20" s="288"/>
-      <c r="I20" s="288"/>
-      <c r="J20" s="288"/>
-      <c r="K20" s="288"/>
+      <c r="G20" s="243"/>
+      <c r="H20" s="243"/>
+      <c r="I20" s="243"/>
+      <c r="J20" s="243"/>
+      <c r="K20" s="243"/>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
       <c r="N20" s="34"/>
@@ -6363,19 +6366,19 @@
       <c r="T20" s="120"/>
     </row>
     <row r="21" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A21" s="241" t="s">
+      <c r="A21" s="240" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="237"/>
+      <c r="B21" s="241"/>
       <c r="C21" s="41"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
-      <c r="F21" s="288"/>
-      <c r="G21" s="288"/>
-      <c r="H21" s="288"/>
-      <c r="I21" s="288"/>
-      <c r="J21" s="288"/>
-      <c r="K21" s="288"/>
+      <c r="F21" s="243"/>
+      <c r="G21" s="243"/>
+      <c r="H21" s="243"/>
+      <c r="I21" s="243"/>
+      <c r="J21" s="243"/>
+      <c r="K21" s="243"/>
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
       <c r="N21" s="34"/>
@@ -6387,11 +6390,11 @@
       <c r="T21" s="120"/>
     </row>
     <row r="22" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A22" s="241" t="s">
+      <c r="A22" s="240" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="237"/>
-      <c r="C22" s="238"/>
+      <c r="B22" s="241"/>
+      <c r="C22" s="242"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="32"/>
@@ -6411,11 +6414,11 @@
       <c r="T22" s="120"/>
     </row>
     <row r="23" spans="1:20" ht="12" customHeight="1">
-      <c r="A23" s="241" t="s">
+      <c r="A23" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="237"/>
-      <c r="C23" s="238"/>
+      <c r="B23" s="241"/>
+      <c r="C23" s="242"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="46" t="s">
@@ -6437,11 +6440,11 @@
       <c r="T23" s="120"/>
     </row>
     <row r="24" spans="1:20" ht="12" customHeight="1">
-      <c r="A24" s="241" t="s">
+      <c r="A24" s="240" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="237"/>
-      <c r="C24" s="238"/>
+      <c r="B24" s="241"/>
+      <c r="C24" s="242"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="46" t="s">
@@ -6463,11 +6466,11 @@
       <c r="T24" s="120"/>
     </row>
     <row r="25" spans="1:20" ht="12" customHeight="1">
-      <c r="A25" s="241" t="s">
+      <c r="A25" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="237"/>
-      <c r="C25" s="238"/>
+      <c r="B25" s="241"/>
+      <c r="C25" s="242"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="52" t="s">
@@ -6489,11 +6492,11 @@
       <c r="T25" s="120"/>
     </row>
     <row r="26" spans="1:20" ht="12" customHeight="1">
-      <c r="A26" s="241" t="s">
+      <c r="A26" s="240" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="237"/>
-      <c r="C26" s="238"/>
+      <c r="B26" s="241"/>
+      <c r="C26" s="242"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="57"/>
@@ -6513,20 +6516,20 @@
       <c r="T26" s="120"/>
     </row>
     <row r="27" spans="1:20" ht="12" customHeight="1">
-      <c r="A27" s="297" t="s">
+      <c r="A27" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="298"/>
-      <c r="C27" s="299"/>
+      <c r="B27" s="253"/>
+      <c r="C27" s="254"/>
       <c r="D27" s="38"/>
       <c r="E27" s="60"/>
-      <c r="F27" s="294" t="s">
+      <c r="F27" s="249" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="294"/>
-      <c r="H27" s="294"/>
-      <c r="I27" s="294"/>
-      <c r="J27" s="294"/>
+      <c r="G27" s="249"/>
+      <c r="H27" s="249"/>
+      <c r="I27" s="249"/>
+      <c r="J27" s="249"/>
       <c r="K27" s="53"/>
       <c r="L27" s="53"/>
       <c r="M27" s="59"/>
@@ -6539,18 +6542,18 @@
       <c r="T27" s="120"/>
     </row>
     <row r="28" spans="1:20" ht="12" customHeight="1">
-      <c r="A28" s="291" t="s">
+      <c r="A28" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="292"/>
-      <c r="C28" s="293"/>
+      <c r="B28" s="247"/>
+      <c r="C28" s="248"/>
       <c r="D28" s="38"/>
       <c r="E28" s="60"/>
-      <c r="F28" s="294"/>
-      <c r="G28" s="294"/>
-      <c r="H28" s="294"/>
-      <c r="I28" s="294"/>
-      <c r="J28" s="294"/>
+      <c r="F28" s="249"/>
+      <c r="G28" s="249"/>
+      <c r="H28" s="249"/>
+      <c r="I28" s="249"/>
+      <c r="J28" s="249"/>
       <c r="K28" s="32"/>
       <c r="L28" s="33"/>
       <c r="M28" s="59"/>
@@ -6587,10 +6590,10 @@
       <c r="T29" s="120"/>
     </row>
     <row r="30" spans="1:20" ht="12" customHeight="1">
-      <c r="A30" s="295"/>
-      <c r="B30" s="296"/>
-      <c r="C30" s="296"/>
-      <c r="D30" s="296"/>
+      <c r="A30" s="250"/>
+      <c r="B30" s="251"/>
+      <c r="C30" s="251"/>
+      <c r="D30" s="251"/>
       <c r="E30" s="30"/>
       <c r="F30" s="46" t="s">
         <v>37</v>
@@ -6611,11 +6614,11 @@
       <c r="T30" s="120"/>
     </row>
     <row r="31" spans="1:20" ht="12" customHeight="1">
-      <c r="A31" s="239" t="s">
+      <c r="A31" s="237" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="240"/>
-      <c r="C31" s="240"/>
+      <c r="B31" s="238"/>
+      <c r="C31" s="238"/>
       <c r="D31" s="68"/>
       <c r="E31" s="32"/>
       <c r="F31" s="46" t="s">
@@ -6661,12 +6664,12 @@
       <c r="T32" s="120"/>
     </row>
     <row r="33" spans="1:20" ht="12" customHeight="1">
-      <c r="A33" s="241" t="s">
+      <c r="A33" s="240" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="238"/>
-      <c r="C33" s="242"/>
-      <c r="D33" s="242"/>
+      <c r="B33" s="242"/>
+      <c r="C33" s="318"/>
+      <c r="D33" s="318"/>
       <c r="E33" s="39"/>
       <c r="F33" s="46" t="s">
         <v>41</v>
@@ -6943,22 +6946,22 @@
       <c r="T44" s="115"/>
     </row>
     <row r="45" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A45" s="284" t="s">
+      <c r="A45" s="234" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="285"/>
-      <c r="C45" s="285"/>
-      <c r="D45" s="285"/>
-      <c r="E45" s="285"/>
-      <c r="F45" s="285"/>
-      <c r="G45" s="285"/>
-      <c r="H45" s="285"/>
-      <c r="I45" s="285"/>
-      <c r="J45" s="285"/>
-      <c r="K45" s="285"/>
-      <c r="L45" s="285"/>
-      <c r="M45" s="285"/>
-      <c r="N45" s="286"/>
+      <c r="B45" s="235"/>
+      <c r="C45" s="235"/>
+      <c r="D45" s="235"/>
+      <c r="E45" s="235"/>
+      <c r="F45" s="235"/>
+      <c r="G45" s="235"/>
+      <c r="H45" s="235"/>
+      <c r="I45" s="235"/>
+      <c r="J45" s="235"/>
+      <c r="K45" s="235"/>
+      <c r="L45" s="235"/>
+      <c r="M45" s="235"/>
+      <c r="N45" s="236"/>
       <c r="O45" s="120"/>
       <c r="P45" s="120"/>
       <c r="Q45" s="120"/>
@@ -6967,22 +6970,22 @@
       <c r="T45" s="120"/>
     </row>
     <row r="46" spans="1:20">
-      <c r="A46" s="198" t="s">
+      <c r="A46" s="320" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="199"/>
-      <c r="C46" s="199"/>
-      <c r="D46" s="199"/>
-      <c r="E46" s="199"/>
-      <c r="F46" s="199"/>
-      <c r="G46" s="199"/>
-      <c r="H46" s="199"/>
-      <c r="I46" s="199"/>
-      <c r="J46" s="199"/>
-      <c r="K46" s="199"/>
-      <c r="L46" s="199"/>
-      <c r="M46" s="199"/>
-      <c r="N46" s="200"/>
+      <c r="B46" s="321"/>
+      <c r="C46" s="321"/>
+      <c r="D46" s="321"/>
+      <c r="E46" s="321"/>
+      <c r="F46" s="321"/>
+      <c r="G46" s="321"/>
+      <c r="H46" s="321"/>
+      <c r="I46" s="321"/>
+      <c r="J46" s="321"/>
+      <c r="K46" s="321"/>
+      <c r="L46" s="321"/>
+      <c r="M46" s="321"/>
+      <c r="N46" s="322"/>
       <c r="O46" s="120"/>
       <c r="P46" s="120"/>
       <c r="Q46" s="120"/>
@@ -6991,20 +6994,20 @@
       <c r="T46" s="120"/>
     </row>
     <row r="47" spans="1:20" s="123" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A47" s="201"/>
-      <c r="B47" s="202"/>
-      <c r="C47" s="202"/>
-      <c r="D47" s="202"/>
-      <c r="E47" s="202"/>
-      <c r="F47" s="202"/>
-      <c r="G47" s="202"/>
-      <c r="H47" s="202"/>
-      <c r="I47" s="202"/>
-      <c r="J47" s="202"/>
-      <c r="K47" s="203"/>
-      <c r="L47" s="203"/>
-      <c r="M47" s="203"/>
-      <c r="N47" s="204"/>
+      <c r="A47" s="323"/>
+      <c r="B47" s="324"/>
+      <c r="C47" s="324"/>
+      <c r="D47" s="324"/>
+      <c r="E47" s="324"/>
+      <c r="F47" s="324"/>
+      <c r="G47" s="324"/>
+      <c r="H47" s="324"/>
+      <c r="I47" s="324"/>
+      <c r="J47" s="324"/>
+      <c r="K47" s="325"/>
+      <c r="L47" s="325"/>
+      <c r="M47" s="325"/>
+      <c r="N47" s="326"/>
       <c r="O47" s="122"/>
       <c r="P47" s="122"/>
       <c r="Q47" s="122"/>
@@ -7013,18 +7016,18 @@
       <c r="T47" s="122"/>
     </row>
     <row r="48" spans="1:20" s="123" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A48" s="209" t="s">
+      <c r="A48" s="331" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="210"/>
-      <c r="C48" s="210"/>
-      <c r="D48" s="210"/>
-      <c r="E48" s="210"/>
-      <c r="F48" s="210"/>
-      <c r="G48" s="210"/>
-      <c r="H48" s="210"/>
-      <c r="I48" s="210"/>
-      <c r="J48" s="210"/>
+      <c r="B48" s="332"/>
+      <c r="C48" s="332"/>
+      <c r="D48" s="332"/>
+      <c r="E48" s="332"/>
+      <c r="F48" s="332"/>
+      <c r="G48" s="332"/>
+      <c r="H48" s="332"/>
+      <c r="I48" s="332"/>
+      <c r="J48" s="332"/>
       <c r="K48" s="88">
         <v>1</v>
       </c>
@@ -7045,18 +7048,18 @@
       <c r="T48" s="122"/>
     </row>
     <row r="49" spans="1:20" s="123" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A49" s="211" t="s">
+      <c r="A49" s="333" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="211"/>
-      <c r="C49" s="211"/>
-      <c r="D49" s="211"/>
-      <c r="E49" s="211"/>
-      <c r="F49" s="211"/>
-      <c r="G49" s="211"/>
-      <c r="H49" s="211"/>
-      <c r="I49" s="211"/>
-      <c r="J49" s="211"/>
+      <c r="B49" s="333"/>
+      <c r="C49" s="333"/>
+      <c r="D49" s="333"/>
+      <c r="E49" s="333"/>
+      <c r="F49" s="333"/>
+      <c r="G49" s="333"/>
+      <c r="H49" s="333"/>
+      <c r="I49" s="333"/>
+      <c r="J49" s="333"/>
       <c r="K49" s="89"/>
       <c r="L49" s="89"/>
       <c r="M49" s="89"/>
@@ -7069,18 +7072,18 @@
       <c r="T49" s="122"/>
     </row>
     <row r="50" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A50" s="211" t="s">
+      <c r="A50" s="333" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="211"/>
-      <c r="C50" s="211"/>
-      <c r="D50" s="211"/>
-      <c r="E50" s="211"/>
-      <c r="F50" s="211"/>
-      <c r="G50" s="211"/>
-      <c r="H50" s="211"/>
-      <c r="I50" s="211"/>
-      <c r="J50" s="211"/>
+      <c r="B50" s="333"/>
+      <c r="C50" s="333"/>
+      <c r="D50" s="333"/>
+      <c r="E50" s="333"/>
+      <c r="F50" s="333"/>
+      <c r="G50" s="333"/>
+      <c r="H50" s="333"/>
+      <c r="I50" s="333"/>
+      <c r="J50" s="333"/>
       <c r="K50" s="89"/>
       <c r="L50" s="89"/>
       <c r="M50" s="89"/>
@@ -7093,18 +7096,18 @@
       <c r="T50" s="120"/>
     </row>
     <row r="51" spans="1:20" ht="15" customHeight="1">
-      <c r="A51" s="197" t="s">
+      <c r="A51" s="319" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="197"/>
-      <c r="C51" s="197"/>
-      <c r="D51" s="197"/>
-      <c r="E51" s="197"/>
-      <c r="F51" s="197"/>
-      <c r="G51" s="197"/>
-      <c r="H51" s="197"/>
-      <c r="I51" s="197"/>
-      <c r="J51" s="197"/>
+      <c r="B51" s="319"/>
+      <c r="C51" s="319"/>
+      <c r="D51" s="319"/>
+      <c r="E51" s="319"/>
+      <c r="F51" s="319"/>
+      <c r="G51" s="319"/>
+      <c r="H51" s="319"/>
+      <c r="I51" s="319"/>
+      <c r="J51" s="319"/>
       <c r="K51" s="88">
         <v>1</v>
       </c>
@@ -7125,54 +7128,54 @@
       <c r="T51" s="120"/>
     </row>
     <row r="52" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A52" s="208" t="s">
+      <c r="A52" s="330" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="208"/>
-      <c r="C52" s="208"/>
-      <c r="D52" s="208"/>
-      <c r="E52" s="208"/>
-      <c r="F52" s="208"/>
-      <c r="G52" s="208"/>
-      <c r="H52" s="208"/>
-      <c r="I52" s="208"/>
-      <c r="J52" s="208"/>
+      <c r="B52" s="330"/>
+      <c r="C52" s="330"/>
+      <c r="D52" s="330"/>
+      <c r="E52" s="330"/>
+      <c r="F52" s="330"/>
+      <c r="G52" s="330"/>
+      <c r="H52" s="330"/>
+      <c r="I52" s="330"/>
+      <c r="J52" s="330"/>
       <c r="K52" s="90"/>
       <c r="L52" s="90"/>
       <c r="M52" s="90"/>
       <c r="N52" s="90"/>
     </row>
     <row r="53" spans="1:20" s="120" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A53" s="208" t="s">
+      <c r="A53" s="330" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="208"/>
-      <c r="C53" s="208"/>
-      <c r="D53" s="208"/>
-      <c r="E53" s="208"/>
-      <c r="F53" s="208"/>
-      <c r="G53" s="208"/>
-      <c r="H53" s="208"/>
-      <c r="I53" s="208"/>
-      <c r="J53" s="208"/>
+      <c r="B53" s="330"/>
+      <c r="C53" s="330"/>
+      <c r="D53" s="330"/>
+      <c r="E53" s="330"/>
+      <c r="F53" s="330"/>
+      <c r="G53" s="330"/>
+      <c r="H53" s="330"/>
+      <c r="I53" s="330"/>
+      <c r="J53" s="330"/>
       <c r="K53" s="90"/>
       <c r="L53" s="90"/>
       <c r="M53" s="90"/>
       <c r="N53" s="90"/>
     </row>
     <row r="54" spans="1:20" ht="15" customHeight="1">
-      <c r="A54" s="197" t="s">
+      <c r="A54" s="319" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="197"/>
-      <c r="C54" s="197"/>
-      <c r="D54" s="197"/>
-      <c r="E54" s="197"/>
-      <c r="F54" s="197"/>
-      <c r="G54" s="197"/>
-      <c r="H54" s="197"/>
-      <c r="I54" s="197"/>
-      <c r="J54" s="197"/>
+      <c r="B54" s="319"/>
+      <c r="C54" s="319"/>
+      <c r="D54" s="319"/>
+      <c r="E54" s="319"/>
+      <c r="F54" s="319"/>
+      <c r="G54" s="319"/>
+      <c r="H54" s="319"/>
+      <c r="I54" s="319"/>
+      <c r="J54" s="319"/>
       <c r="K54" s="88">
         <v>1</v>
       </c>
@@ -7193,62 +7196,62 @@
       <c r="T54" s="120"/>
     </row>
     <row r="55" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A55" s="208" t="s">
+      <c r="A55" s="330" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="208"/>
-      <c r="C55" s="208"/>
-      <c r="D55" s="208"/>
-      <c r="E55" s="208"/>
-      <c r="F55" s="208"/>
-      <c r="G55" s="208"/>
-      <c r="H55" s="208"/>
-      <c r="I55" s="208"/>
-      <c r="J55" s="208"/>
+      <c r="B55" s="330"/>
+      <c r="C55" s="330"/>
+      <c r="D55" s="330"/>
+      <c r="E55" s="330"/>
+      <c r="F55" s="330"/>
+      <c r="G55" s="330"/>
+      <c r="H55" s="330"/>
+      <c r="I55" s="330"/>
+      <c r="J55" s="330"/>
       <c r="K55" s="90"/>
       <c r="L55" s="90"/>
       <c r="M55" s="90"/>
       <c r="N55" s="90"/>
     </row>
     <row r="56" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A56" s="271" t="s">
+      <c r="A56" s="258" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="271"/>
-      <c r="C56" s="271"/>
-      <c r="D56" s="271"/>
-      <c r="E56" s="271"/>
-      <c r="F56" s="271"/>
-      <c r="G56" s="271"/>
-      <c r="H56" s="271"/>
-      <c r="I56" s="271"/>
-      <c r="J56" s="271"/>
+      <c r="B56" s="258"/>
+      <c r="C56" s="258"/>
+      <c r="D56" s="258"/>
+      <c r="E56" s="258"/>
+      <c r="F56" s="258"/>
+      <c r="G56" s="258"/>
+      <c r="H56" s="258"/>
+      <c r="I56" s="258"/>
+      <c r="J56" s="258"/>
       <c r="K56" s="91"/>
       <c r="L56" s="91"/>
       <c r="M56" s="91"/>
       <c r="N56" s="91"/>
     </row>
     <row r="57" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A57" s="272" t="s">
+      <c r="A57" s="259" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="273"/>
-      <c r="C57" s="273"/>
-      <c r="D57" s="273"/>
-      <c r="E57" s="273"/>
-      <c r="F57" s="274"/>
-      <c r="G57" s="278" t="s">
+      <c r="B57" s="260"/>
+      <c r="C57" s="260"/>
+      <c r="D57" s="260"/>
+      <c r="E57" s="260"/>
+      <c r="F57" s="261"/>
+      <c r="G57" s="265" t="s">
         <v>60</v>
       </c>
-      <c r="H57" s="279"/>
-      <c r="I57" s="279"/>
-      <c r="J57" s="280"/>
-      <c r="K57" s="205" t="s">
+      <c r="H57" s="266"/>
+      <c r="I57" s="266"/>
+      <c r="J57" s="267"/>
+      <c r="K57" s="327" t="s">
         <v>61</v>
       </c>
-      <c r="L57" s="206"/>
-      <c r="M57" s="206"/>
-      <c r="N57" s="207"/>
+      <c r="L57" s="328"/>
+      <c r="M57" s="328"/>
+      <c r="N57" s="329"/>
       <c r="O57" s="120"/>
       <c r="P57" s="120"/>
       <c r="Q57" s="120"/>
@@ -7257,12 +7260,12 @@
       <c r="T57" s="120"/>
     </row>
     <row r="58" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A58" s="275"/>
-      <c r="B58" s="276"/>
-      <c r="C58" s="276"/>
-      <c r="D58" s="276"/>
-      <c r="E58" s="276"/>
-      <c r="F58" s="277"/>
+      <c r="A58" s="262"/>
+      <c r="B58" s="263"/>
+      <c r="C58" s="263"/>
+      <c r="D58" s="263"/>
+      <c r="E58" s="263"/>
+      <c r="F58" s="264"/>
       <c r="G58" s="88">
         <v>1</v>
       </c>
@@ -7295,14 +7298,14 @@
       <c r="T58" s="120"/>
     </row>
     <row r="59" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A59" s="268" t="s">
+      <c r="A59" s="255" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="269"/>
-      <c r="C59" s="269"/>
-      <c r="D59" s="269"/>
-      <c r="E59" s="269"/>
-      <c r="F59" s="270"/>
+      <c r="B59" s="256"/>
+      <c r="C59" s="256"/>
+      <c r="D59" s="256"/>
+      <c r="E59" s="256"/>
+      <c r="F59" s="257"/>
       <c r="G59" s="92"/>
       <c r="H59" s="92"/>
       <c r="I59" s="92"/>
@@ -7313,14 +7316,14 @@
       <c r="N59" s="90"/>
     </row>
     <row r="60" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A60" s="268" t="s">
+      <c r="A60" s="255" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="269"/>
-      <c r="C60" s="269"/>
-      <c r="D60" s="269"/>
-      <c r="E60" s="269"/>
-      <c r="F60" s="270"/>
+      <c r="B60" s="256"/>
+      <c r="C60" s="256"/>
+      <c r="D60" s="256"/>
+      <c r="E60" s="256"/>
+      <c r="F60" s="257"/>
       <c r="G60" s="92"/>
       <c r="H60" s="92"/>
       <c r="I60" s="92"/>
@@ -7331,18 +7334,18 @@
       <c r="N60" s="90"/>
     </row>
     <row r="61" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A61" s="281" t="s">
+      <c r="A61" s="268" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="282"/>
-      <c r="C61" s="282"/>
-      <c r="D61" s="282"/>
-      <c r="E61" s="282"/>
-      <c r="F61" s="282"/>
-      <c r="G61" s="282"/>
-      <c r="H61" s="282"/>
-      <c r="I61" s="282"/>
-      <c r="J61" s="283"/>
+      <c r="B61" s="269"/>
+      <c r="C61" s="269"/>
+      <c r="D61" s="269"/>
+      <c r="E61" s="269"/>
+      <c r="F61" s="269"/>
+      <c r="G61" s="269"/>
+      <c r="H61" s="269"/>
+      <c r="I61" s="269"/>
+      <c r="J61" s="270"/>
       <c r="K61" s="88">
         <v>1</v>
       </c>
@@ -7363,54 +7366,54 @@
       <c r="T61" s="120"/>
     </row>
     <row r="62" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A62" s="268" t="s">
+      <c r="A62" s="255" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="269"/>
-      <c r="C62" s="269"/>
-      <c r="D62" s="269"/>
-      <c r="E62" s="269"/>
-      <c r="F62" s="269"/>
-      <c r="G62" s="269"/>
-      <c r="H62" s="269"/>
-      <c r="I62" s="269"/>
-      <c r="J62" s="270"/>
+      <c r="B62" s="256"/>
+      <c r="C62" s="256"/>
+      <c r="D62" s="256"/>
+      <c r="E62" s="256"/>
+      <c r="F62" s="256"/>
+      <c r="G62" s="256"/>
+      <c r="H62" s="256"/>
+      <c r="I62" s="256"/>
+      <c r="J62" s="257"/>
       <c r="K62" s="93"/>
       <c r="L62" s="90"/>
       <c r="M62" s="90"/>
       <c r="N62" s="90"/>
     </row>
     <row r="63" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A63" s="268" t="s">
+      <c r="A63" s="255" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="269"/>
-      <c r="C63" s="269"/>
-      <c r="D63" s="269"/>
-      <c r="E63" s="269"/>
-      <c r="F63" s="269"/>
-      <c r="G63" s="269"/>
-      <c r="H63" s="269"/>
-      <c r="I63" s="269"/>
-      <c r="J63" s="270"/>
+      <c r="B63" s="256"/>
+      <c r="C63" s="256"/>
+      <c r="D63" s="256"/>
+      <c r="E63" s="256"/>
+      <c r="F63" s="256"/>
+      <c r="G63" s="256"/>
+      <c r="H63" s="256"/>
+      <c r="I63" s="256"/>
+      <c r="J63" s="257"/>
       <c r="K63" s="93"/>
       <c r="L63" s="90"/>
       <c r="M63" s="90"/>
       <c r="N63" s="90"/>
     </row>
     <row r="64" spans="1:20" ht="27.75" customHeight="1">
-      <c r="A64" s="259" t="s">
+      <c r="A64" s="271" t="s">
         <v>94</v>
       </c>
-      <c r="B64" s="260"/>
-      <c r="C64" s="260"/>
-      <c r="D64" s="260"/>
-      <c r="E64" s="260"/>
-      <c r="F64" s="260"/>
-      <c r="G64" s="260"/>
-      <c r="H64" s="260"/>
-      <c r="I64" s="260"/>
-      <c r="J64" s="261"/>
+      <c r="B64" s="272"/>
+      <c r="C64" s="272"/>
+      <c r="D64" s="272"/>
+      <c r="E64" s="272"/>
+      <c r="F64" s="272"/>
+      <c r="G64" s="272"/>
+      <c r="H64" s="272"/>
+      <c r="I64" s="272"/>
+      <c r="J64" s="273"/>
       <c r="K64" s="94">
         <v>1</v>
       </c>
@@ -7431,18 +7434,18 @@
       <c r="T64" s="120"/>
     </row>
     <row r="65" spans="1:84" ht="14.1" customHeight="1">
-      <c r="A65" s="268" t="s">
+      <c r="A65" s="255" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="269"/>
-      <c r="C65" s="269"/>
-      <c r="D65" s="269"/>
-      <c r="E65" s="269"/>
-      <c r="F65" s="269"/>
-      <c r="G65" s="269"/>
-      <c r="H65" s="269"/>
-      <c r="I65" s="269"/>
-      <c r="J65" s="270"/>
+      <c r="B65" s="256"/>
+      <c r="C65" s="256"/>
+      <c r="D65" s="256"/>
+      <c r="E65" s="256"/>
+      <c r="F65" s="256"/>
+      <c r="G65" s="256"/>
+      <c r="H65" s="256"/>
+      <c r="I65" s="256"/>
+      <c r="J65" s="257"/>
       <c r="K65" s="90"/>
       <c r="L65" s="90"/>
       <c r="M65" s="90"/>
@@ -7455,18 +7458,18 @@
       <c r="T65" s="120"/>
     </row>
     <row r="66" spans="1:84" ht="25.5" customHeight="1">
-      <c r="A66" s="231" t="s">
+      <c r="A66" s="274" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="232"/>
-      <c r="C66" s="232"/>
-      <c r="D66" s="232"/>
-      <c r="E66" s="232"/>
-      <c r="F66" s="232"/>
-      <c r="G66" s="232"/>
-      <c r="H66" s="232"/>
-      <c r="I66" s="232"/>
-      <c r="J66" s="233"/>
+      <c r="B66" s="275"/>
+      <c r="C66" s="275"/>
+      <c r="D66" s="275"/>
+      <c r="E66" s="275"/>
+      <c r="F66" s="275"/>
+      <c r="G66" s="275"/>
+      <c r="H66" s="275"/>
+      <c r="I66" s="275"/>
+      <c r="J66" s="276"/>
       <c r="K66" s="90"/>
       <c r="L66" s="90"/>
       <c r="M66" s="90"/>
@@ -7479,18 +7482,18 @@
       <c r="T66" s="120"/>
     </row>
     <row r="67" spans="1:84" ht="15" customHeight="1">
-      <c r="A67" s="259" t="s">
+      <c r="A67" s="271" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="260"/>
-      <c r="C67" s="260"/>
-      <c r="D67" s="260"/>
-      <c r="E67" s="260"/>
-      <c r="F67" s="260"/>
-      <c r="G67" s="260"/>
-      <c r="H67" s="260"/>
-      <c r="I67" s="260"/>
-      <c r="J67" s="261"/>
+      <c r="B67" s="272"/>
+      <c r="C67" s="272"/>
+      <c r="D67" s="272"/>
+      <c r="E67" s="272"/>
+      <c r="F67" s="272"/>
+      <c r="G67" s="272"/>
+      <c r="H67" s="272"/>
+      <c r="I67" s="272"/>
+      <c r="J67" s="273"/>
       <c r="K67" s="88">
         <v>1</v>
       </c>
@@ -7511,18 +7514,18 @@
       <c r="T67" s="120"/>
     </row>
     <row r="68" spans="1:84" ht="14.1" customHeight="1">
-      <c r="A68" s="231" t="s">
+      <c r="A68" s="274" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="232"/>
-      <c r="C68" s="232"/>
-      <c r="D68" s="232"/>
-      <c r="E68" s="232"/>
-      <c r="F68" s="232"/>
-      <c r="G68" s="232"/>
-      <c r="H68" s="232"/>
-      <c r="I68" s="232"/>
-      <c r="J68" s="233"/>
+      <c r="B68" s="275"/>
+      <c r="C68" s="275"/>
+      <c r="D68" s="275"/>
+      <c r="E68" s="275"/>
+      <c r="F68" s="275"/>
+      <c r="G68" s="275"/>
+      <c r="H68" s="275"/>
+      <c r="I68" s="275"/>
+      <c r="J68" s="276"/>
       <c r="K68" s="90"/>
       <c r="L68" s="90"/>
       <c r="M68" s="90"/>
@@ -7535,18 +7538,18 @@
       <c r="T68" s="120"/>
     </row>
     <row r="69" spans="1:84" ht="26.25" customHeight="1">
-      <c r="A69" s="262" t="s">
+      <c r="A69" s="277" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="263"/>
-      <c r="C69" s="263"/>
-      <c r="D69" s="263"/>
-      <c r="E69" s="263"/>
-      <c r="F69" s="263"/>
-      <c r="G69" s="263"/>
-      <c r="H69" s="263"/>
-      <c r="I69" s="263"/>
-      <c r="J69" s="264"/>
+      <c r="B69" s="278"/>
+      <c r="C69" s="278"/>
+      <c r="D69" s="278"/>
+      <c r="E69" s="278"/>
+      <c r="F69" s="278"/>
+      <c r="G69" s="278"/>
+      <c r="H69" s="278"/>
+      <c r="I69" s="278"/>
+      <c r="J69" s="279"/>
       <c r="K69" s="91"/>
       <c r="L69" s="91"/>
       <c r="M69" s="91"/>
@@ -7559,22 +7562,22 @@
       <c r="T69" s="120"/>
     </row>
     <row r="70" spans="1:84" ht="15" customHeight="1">
-      <c r="A70" s="265" t="s">
+      <c r="A70" s="280" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="266"/>
-      <c r="C70" s="266"/>
-      <c r="D70" s="266"/>
-      <c r="E70" s="266"/>
-      <c r="F70" s="266"/>
-      <c r="G70" s="266"/>
-      <c r="H70" s="266"/>
-      <c r="I70" s="266"/>
-      <c r="J70" s="266"/>
-      <c r="K70" s="266"/>
-      <c r="L70" s="266"/>
-      <c r="M70" s="266"/>
-      <c r="N70" s="267"/>
+      <c r="B70" s="281"/>
+      <c r="C70" s="281"/>
+      <c r="D70" s="281"/>
+      <c r="E70" s="281"/>
+      <c r="F70" s="281"/>
+      <c r="G70" s="281"/>
+      <c r="H70" s="281"/>
+      <c r="I70" s="281"/>
+      <c r="J70" s="281"/>
+      <c r="K70" s="281"/>
+      <c r="L70" s="281"/>
+      <c r="M70" s="281"/>
+      <c r="N70" s="282"/>
       <c r="O70" s="120"/>
       <c r="P70" s="120"/>
       <c r="Q70" s="120"/>
@@ -7605,18 +7608,18 @@
       <c r="T71" s="120"/>
     </row>
     <row r="72" spans="1:84" ht="25.5" customHeight="1">
-      <c r="A72" s="231" t="s">
+      <c r="A72" s="274" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="232"/>
-      <c r="C72" s="232"/>
-      <c r="D72" s="232"/>
-      <c r="E72" s="232"/>
-      <c r="F72" s="232"/>
-      <c r="G72" s="232"/>
-      <c r="H72" s="232"/>
-      <c r="I72" s="232"/>
-      <c r="J72" s="233"/>
+      <c r="B72" s="275"/>
+      <c r="C72" s="275"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="275"/>
+      <c r="F72" s="275"/>
+      <c r="G72" s="275"/>
+      <c r="H72" s="275"/>
+      <c r="I72" s="275"/>
+      <c r="J72" s="276"/>
       <c r="K72" s="101" t="s">
         <v>96</v>
       </c>
@@ -7633,18 +7636,18 @@
       <c r="T72" s="120"/>
     </row>
     <row r="73" spans="1:84" ht="23.25" customHeight="1">
-      <c r="A73" s="231" t="s">
+      <c r="A73" s="274" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="232"/>
-      <c r="C73" s="232"/>
-      <c r="D73" s="232"/>
-      <c r="E73" s="232"/>
-      <c r="F73" s="232"/>
-      <c r="G73" s="232"/>
-      <c r="H73" s="232"/>
-      <c r="I73" s="232"/>
-      <c r="J73" s="233"/>
+      <c r="B73" s="275"/>
+      <c r="C73" s="275"/>
+      <c r="D73" s="275"/>
+      <c r="E73" s="275"/>
+      <c r="F73" s="275"/>
+      <c r="G73" s="275"/>
+      <c r="H73" s="275"/>
+      <c r="I73" s="275"/>
+      <c r="J73" s="276"/>
       <c r="K73" s="101" t="s">
         <v>96</v>
       </c>
@@ -7683,18 +7686,18 @@
       <c r="T74" s="120"/>
     </row>
     <row r="75" spans="1:84" ht="15" customHeight="1">
-      <c r="A75" s="234" t="s">
+      <c r="A75" s="296" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="235"/>
-      <c r="C75" s="235"/>
-      <c r="D75" s="235"/>
-      <c r="E75" s="235"/>
-      <c r="F75" s="235"/>
-      <c r="G75" s="235"/>
-      <c r="H75" s="235"/>
-      <c r="I75" s="235"/>
-      <c r="J75" s="236"/>
+      <c r="B75" s="297"/>
+      <c r="C75" s="297"/>
+      <c r="D75" s="297"/>
+      <c r="E75" s="297"/>
+      <c r="F75" s="297"/>
+      <c r="G75" s="297"/>
+      <c r="H75" s="297"/>
+      <c r="I75" s="297"/>
+      <c r="J75" s="298"/>
       <c r="K75" s="88">
         <v>1</v>
       </c>
@@ -7779,18 +7782,18 @@
       <c r="CF75" s="120"/>
     </row>
     <row r="76" spans="1:84" ht="14.1" customHeight="1">
-      <c r="A76" s="253" t="s">
+      <c r="A76" s="293" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="254"/>
-      <c r="C76" s="254"/>
-      <c r="D76" s="254"/>
-      <c r="E76" s="254"/>
-      <c r="F76" s="254"/>
-      <c r="G76" s="254"/>
-      <c r="H76" s="254"/>
-      <c r="I76" s="254"/>
-      <c r="J76" s="255"/>
+      <c r="B76" s="294"/>
+      <c r="C76" s="294"/>
+      <c r="D76" s="294"/>
+      <c r="E76" s="294"/>
+      <c r="F76" s="294"/>
+      <c r="G76" s="294"/>
+      <c r="H76" s="294"/>
+      <c r="I76" s="294"/>
+      <c r="J76" s="295"/>
       <c r="K76" s="109"/>
       <c r="L76" s="109"/>
       <c r="M76" s="109"/>
@@ -7867,18 +7870,18 @@
       <c r="CF76" s="120"/>
     </row>
     <row r="77" spans="1:84" ht="14.1" customHeight="1">
-      <c r="A77" s="253" t="s">
+      <c r="A77" s="293" t="s">
         <v>74</v>
       </c>
-      <c r="B77" s="254"/>
-      <c r="C77" s="254"/>
-      <c r="D77" s="254"/>
-      <c r="E77" s="254"/>
-      <c r="F77" s="254"/>
-      <c r="G77" s="254"/>
-      <c r="H77" s="254"/>
-      <c r="I77" s="254"/>
-      <c r="J77" s="255"/>
+      <c r="B77" s="294"/>
+      <c r="C77" s="294"/>
+      <c r="D77" s="294"/>
+      <c r="E77" s="294"/>
+      <c r="F77" s="294"/>
+      <c r="G77" s="294"/>
+      <c r="H77" s="294"/>
+      <c r="I77" s="294"/>
+      <c r="J77" s="295"/>
       <c r="K77" s="109"/>
       <c r="L77" s="109"/>
       <c r="M77" s="109"/>
@@ -7955,18 +7958,18 @@
       <c r="CF77" s="120"/>
     </row>
     <row r="78" spans="1:84" ht="14.1" customHeight="1">
-      <c r="A78" s="253" t="s">
+      <c r="A78" s="293" t="s">
         <v>75</v>
       </c>
-      <c r="B78" s="254"/>
-      <c r="C78" s="254"/>
-      <c r="D78" s="254"/>
-      <c r="E78" s="254"/>
-      <c r="F78" s="254"/>
-      <c r="G78" s="254"/>
-      <c r="H78" s="254"/>
-      <c r="I78" s="254"/>
-      <c r="J78" s="255"/>
+      <c r="B78" s="294"/>
+      <c r="C78" s="294"/>
+      <c r="D78" s="294"/>
+      <c r="E78" s="294"/>
+      <c r="F78" s="294"/>
+      <c r="G78" s="294"/>
+      <c r="H78" s="294"/>
+      <c r="I78" s="294"/>
+      <c r="J78" s="295"/>
       <c r="K78" s="109"/>
       <c r="L78" s="109"/>
       <c r="M78" s="109"/>
@@ -8043,18 +8046,18 @@
       <c r="CF78" s="120"/>
     </row>
     <row r="79" spans="1:84" ht="14.1" customHeight="1">
-      <c r="A79" s="253" t="s">
+      <c r="A79" s="293" t="s">
         <v>76</v>
       </c>
-      <c r="B79" s="254"/>
-      <c r="C79" s="254"/>
-      <c r="D79" s="254"/>
-      <c r="E79" s="254"/>
-      <c r="F79" s="254"/>
-      <c r="G79" s="254"/>
-      <c r="H79" s="254"/>
-      <c r="I79" s="254"/>
-      <c r="J79" s="255"/>
+      <c r="B79" s="294"/>
+      <c r="C79" s="294"/>
+      <c r="D79" s="294"/>
+      <c r="E79" s="294"/>
+      <c r="F79" s="294"/>
+      <c r="G79" s="294"/>
+      <c r="H79" s="294"/>
+      <c r="I79" s="294"/>
+      <c r="J79" s="295"/>
       <c r="K79" s="109"/>
       <c r="L79" s="109"/>
       <c r="M79" s="109"/>
@@ -8131,18 +8134,18 @@
       <c r="CF79" s="120"/>
     </row>
     <row r="80" spans="1:84" ht="14.1" customHeight="1">
-      <c r="A80" s="253" t="s">
+      <c r="A80" s="293" t="s">
         <v>77</v>
       </c>
-      <c r="B80" s="254"/>
-      <c r="C80" s="254"/>
-      <c r="D80" s="254"/>
-      <c r="E80" s="254"/>
-      <c r="F80" s="254"/>
-      <c r="G80" s="254"/>
-      <c r="H80" s="254"/>
-      <c r="I80" s="254"/>
-      <c r="J80" s="255"/>
+      <c r="B80" s="294"/>
+      <c r="C80" s="294"/>
+      <c r="D80" s="294"/>
+      <c r="E80" s="294"/>
+      <c r="F80" s="294"/>
+      <c r="G80" s="294"/>
+      <c r="H80" s="294"/>
+      <c r="I80" s="294"/>
+      <c r="J80" s="295"/>
       <c r="K80" s="109"/>
       <c r="L80" s="109"/>
       <c r="M80" s="109"/>
@@ -8219,18 +8222,18 @@
       <c r="CF80" s="120"/>
     </row>
     <row r="81" spans="1:84" ht="14.1" customHeight="1">
-      <c r="A81" s="244" t="s">
+      <c r="A81" s="284" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="245"/>
-      <c r="C81" s="245"/>
-      <c r="D81" s="245"/>
-      <c r="E81" s="245"/>
-      <c r="F81" s="245"/>
-      <c r="G81" s="245"/>
-      <c r="H81" s="245"/>
-      <c r="I81" s="245"/>
-      <c r="J81" s="246"/>
+      <c r="B81" s="285"/>
+      <c r="C81" s="285"/>
+      <c r="D81" s="285"/>
+      <c r="E81" s="285"/>
+      <c r="F81" s="285"/>
+      <c r="G81" s="285"/>
+      <c r="H81" s="285"/>
+      <c r="I81" s="285"/>
+      <c r="J81" s="286"/>
       <c r="K81" s="88">
         <v>1</v>
       </c>
@@ -8315,16 +8318,16 @@
       <c r="CF81" s="120"/>
     </row>
     <row r="82" spans="1:84" ht="14.1" customHeight="1">
-      <c r="A82" s="247"/>
-      <c r="B82" s="248"/>
-      <c r="C82" s="248"/>
-      <c r="D82" s="248"/>
-      <c r="E82" s="248"/>
-      <c r="F82" s="248"/>
-      <c r="G82" s="248"/>
-      <c r="H82" s="248"/>
-      <c r="I82" s="248"/>
-      <c r="J82" s="249"/>
+      <c r="A82" s="287"/>
+      <c r="B82" s="288"/>
+      <c r="C82" s="288"/>
+      <c r="D82" s="288"/>
+      <c r="E82" s="288"/>
+      <c r="F82" s="288"/>
+      <c r="G82" s="288"/>
+      <c r="H82" s="288"/>
+      <c r="I82" s="288"/>
+      <c r="J82" s="289"/>
       <c r="K82" s="110"/>
       <c r="L82" s="110"/>
       <c r="M82" s="110"/>
@@ -8401,22 +8404,22 @@
       <c r="CF82" s="120"/>
     </row>
     <row r="83" spans="1:84" ht="15" customHeight="1">
-      <c r="A83" s="250" t="s">
+      <c r="A83" s="290" t="s">
         <v>79</v>
       </c>
-      <c r="B83" s="251"/>
-      <c r="C83" s="251"/>
-      <c r="D83" s="251"/>
-      <c r="E83" s="251"/>
-      <c r="F83" s="251"/>
-      <c r="G83" s="251"/>
-      <c r="H83" s="251"/>
-      <c r="I83" s="251"/>
-      <c r="J83" s="251"/>
-      <c r="K83" s="251"/>
-      <c r="L83" s="251"/>
-      <c r="M83" s="251"/>
-      <c r="N83" s="252"/>
+      <c r="B83" s="291"/>
+      <c r="C83" s="291"/>
+      <c r="D83" s="291"/>
+      <c r="E83" s="291"/>
+      <c r="F83" s="291"/>
+      <c r="G83" s="291"/>
+      <c r="H83" s="291"/>
+      <c r="I83" s="291"/>
+      <c r="J83" s="291"/>
+      <c r="K83" s="291"/>
+      <c r="L83" s="291"/>
+      <c r="M83" s="291"/>
+      <c r="N83" s="292"/>
       <c r="O83" s="120"/>
       <c r="P83" s="120"/>
       <c r="Q83" s="120"/>
@@ -8489,20 +8492,20 @@
       <c r="CF83" s="120"/>
     </row>
     <row r="84" spans="1:84">
-      <c r="A84" s="222"/>
-      <c r="B84" s="223"/>
-      <c r="C84" s="223"/>
-      <c r="D84" s="223"/>
-      <c r="E84" s="223"/>
-      <c r="F84" s="223"/>
-      <c r="G84" s="223"/>
-      <c r="H84" s="223"/>
-      <c r="I84" s="223"/>
-      <c r="J84" s="223"/>
-      <c r="K84" s="223"/>
-      <c r="L84" s="223"/>
-      <c r="M84" s="223"/>
-      <c r="N84" s="224"/>
+      <c r="A84" s="309"/>
+      <c r="B84" s="310"/>
+      <c r="C84" s="310"/>
+      <c r="D84" s="310"/>
+      <c r="E84" s="310"/>
+      <c r="F84" s="310"/>
+      <c r="G84" s="310"/>
+      <c r="H84" s="310"/>
+      <c r="I84" s="310"/>
+      <c r="J84" s="310"/>
+      <c r="K84" s="310"/>
+      <c r="L84" s="310"/>
+      <c r="M84" s="310"/>
+      <c r="N84" s="311"/>
       <c r="O84" s="120"/>
       <c r="P84" s="120"/>
       <c r="Q84" s="120"/>
@@ -8575,20 +8578,20 @@
       <c r="CF84" s="120"/>
     </row>
     <row r="85" spans="1:84" ht="16.5" customHeight="1">
-      <c r="A85" s="225"/>
-      <c r="B85" s="226"/>
-      <c r="C85" s="226"/>
-      <c r="D85" s="226"/>
-      <c r="E85" s="226"/>
-      <c r="F85" s="226"/>
-      <c r="G85" s="226"/>
-      <c r="H85" s="226"/>
-      <c r="I85" s="226"/>
-      <c r="J85" s="226"/>
-      <c r="K85" s="226"/>
-      <c r="L85" s="226"/>
-      <c r="M85" s="226"/>
-      <c r="N85" s="227"/>
+      <c r="A85" s="312"/>
+      <c r="B85" s="313"/>
+      <c r="C85" s="313"/>
+      <c r="D85" s="313"/>
+      <c r="E85" s="313"/>
+      <c r="F85" s="313"/>
+      <c r="G85" s="313"/>
+      <c r="H85" s="313"/>
+      <c r="I85" s="313"/>
+      <c r="J85" s="313"/>
+      <c r="K85" s="313"/>
+      <c r="L85" s="313"/>
+      <c r="M85" s="313"/>
+      <c r="N85" s="314"/>
       <c r="O85" s="120"/>
       <c r="P85" s="120"/>
       <c r="Q85" s="120"/>
@@ -8597,20 +8600,20 @@
       <c r="T85" s="120"/>
     </row>
     <row r="86" spans="1:84" ht="6.75" customHeight="1">
-      <c r="A86" s="225"/>
-      <c r="B86" s="226"/>
-      <c r="C86" s="226"/>
-      <c r="D86" s="226"/>
-      <c r="E86" s="226"/>
-      <c r="F86" s="226"/>
-      <c r="G86" s="226"/>
-      <c r="H86" s="226"/>
-      <c r="I86" s="226"/>
-      <c r="J86" s="226"/>
-      <c r="K86" s="226"/>
-      <c r="L86" s="226"/>
-      <c r="M86" s="226"/>
-      <c r="N86" s="227"/>
+      <c r="A86" s="312"/>
+      <c r="B86" s="313"/>
+      <c r="C86" s="313"/>
+      <c r="D86" s="313"/>
+      <c r="E86" s="313"/>
+      <c r="F86" s="313"/>
+      <c r="G86" s="313"/>
+      <c r="H86" s="313"/>
+      <c r="I86" s="313"/>
+      <c r="J86" s="313"/>
+      <c r="K86" s="313"/>
+      <c r="L86" s="313"/>
+      <c r="M86" s="313"/>
+      <c r="N86" s="314"/>
       <c r="O86" s="120"/>
       <c r="P86" s="120"/>
       <c r="Q86" s="120"/>
@@ -8619,20 +8622,20 @@
       <c r="T86" s="120"/>
     </row>
     <row r="87" spans="1:84" ht="15" customHeight="1">
-      <c r="A87" s="225"/>
-      <c r="B87" s="226"/>
-      <c r="C87" s="226"/>
-      <c r="D87" s="226"/>
-      <c r="E87" s="226"/>
-      <c r="F87" s="226"/>
-      <c r="G87" s="226"/>
-      <c r="H87" s="226"/>
-      <c r="I87" s="226"/>
-      <c r="J87" s="226"/>
-      <c r="K87" s="226"/>
-      <c r="L87" s="226"/>
-      <c r="M87" s="226"/>
-      <c r="N87" s="227"/>
+      <c r="A87" s="312"/>
+      <c r="B87" s="313"/>
+      <c r="C87" s="313"/>
+      <c r="D87" s="313"/>
+      <c r="E87" s="313"/>
+      <c r="F87" s="313"/>
+      <c r="G87" s="313"/>
+      <c r="H87" s="313"/>
+      <c r="I87" s="313"/>
+      <c r="J87" s="313"/>
+      <c r="K87" s="313"/>
+      <c r="L87" s="313"/>
+      <c r="M87" s="313"/>
+      <c r="N87" s="314"/>
       <c r="O87" s="120"/>
       <c r="P87" s="120"/>
       <c r="Q87" s="120"/>
@@ -8641,20 +8644,20 @@
       <c r="T87" s="120"/>
     </row>
     <row r="88" spans="1:84">
-      <c r="A88" s="225"/>
-      <c r="B88" s="226"/>
-      <c r="C88" s="226"/>
-      <c r="D88" s="226"/>
-      <c r="E88" s="226"/>
-      <c r="F88" s="226"/>
-      <c r="G88" s="226"/>
-      <c r="H88" s="226"/>
-      <c r="I88" s="226"/>
-      <c r="J88" s="226"/>
-      <c r="K88" s="226"/>
-      <c r="L88" s="226"/>
-      <c r="M88" s="226"/>
-      <c r="N88" s="227"/>
+      <c r="A88" s="312"/>
+      <c r="B88" s="313"/>
+      <c r="C88" s="313"/>
+      <c r="D88" s="313"/>
+      <c r="E88" s="313"/>
+      <c r="F88" s="313"/>
+      <c r="G88" s="313"/>
+      <c r="H88" s="313"/>
+      <c r="I88" s="313"/>
+      <c r="J88" s="313"/>
+      <c r="K88" s="313"/>
+      <c r="L88" s="313"/>
+      <c r="M88" s="313"/>
+      <c r="N88" s="314"/>
       <c r="O88" s="120"/>
       <c r="P88" s="120"/>
       <c r="Q88" s="120"/>
@@ -8663,20 +8666,20 @@
       <c r="T88" s="120"/>
     </row>
     <row r="89" spans="1:84">
-      <c r="A89" s="228"/>
-      <c r="B89" s="229"/>
-      <c r="C89" s="229"/>
-      <c r="D89" s="229"/>
-      <c r="E89" s="229"/>
-      <c r="F89" s="229"/>
-      <c r="G89" s="229"/>
-      <c r="H89" s="229"/>
-      <c r="I89" s="229"/>
-      <c r="J89" s="229"/>
-      <c r="K89" s="229"/>
-      <c r="L89" s="229"/>
-      <c r="M89" s="229"/>
-      <c r="N89" s="230"/>
+      <c r="A89" s="315"/>
+      <c r="B89" s="316"/>
+      <c r="C89" s="316"/>
+      <c r="D89" s="316"/>
+      <c r="E89" s="316"/>
+      <c r="F89" s="316"/>
+      <c r="G89" s="316"/>
+      <c r="H89" s="316"/>
+      <c r="I89" s="316"/>
+      <c r="J89" s="316"/>
+      <c r="K89" s="316"/>
+      <c r="L89" s="316"/>
+      <c r="M89" s="316"/>
+      <c r="N89" s="317"/>
       <c r="O89" s="120"/>
       <c r="P89" s="120"/>
       <c r="Q89" s="120"/>
@@ -8685,22 +8688,22 @@
       <c r="T89" s="120"/>
     </row>
     <row r="90" spans="1:84">
-      <c r="A90" s="234" t="s">
+      <c r="A90" s="296" t="s">
         <v>80</v>
       </c>
-      <c r="B90" s="235"/>
-      <c r="C90" s="235"/>
-      <c r="D90" s="236"/>
-      <c r="E90" s="256"/>
-      <c r="F90" s="257"/>
-      <c r="G90" s="257"/>
-      <c r="H90" s="257"/>
-      <c r="I90" s="257"/>
-      <c r="J90" s="257"/>
-      <c r="K90" s="257"/>
-      <c r="L90" s="257"/>
-      <c r="M90" s="257"/>
-      <c r="N90" s="258"/>
+      <c r="B90" s="297"/>
+      <c r="C90" s="297"/>
+      <c r="D90" s="298"/>
+      <c r="E90" s="299"/>
+      <c r="F90" s="300"/>
+      <c r="G90" s="300"/>
+      <c r="H90" s="300"/>
+      <c r="I90" s="300"/>
+      <c r="J90" s="300"/>
+      <c r="K90" s="300"/>
+      <c r="L90" s="300"/>
+      <c r="M90" s="300"/>
+      <c r="N90" s="301"/>
       <c r="O90" s="120"/>
       <c r="P90" s="120"/>
       <c r="Q90" s="120"/>
@@ -8731,22 +8734,22 @@
       <c r="T91" s="120"/>
     </row>
     <row r="92" spans="1:84" ht="15">
-      <c r="A92" s="243" t="s">
+      <c r="A92" s="283" t="s">
         <v>81</v>
       </c>
-      <c r="B92" s="243"/>
-      <c r="C92" s="243"/>
-      <c r="D92" s="243"/>
-      <c r="E92" s="243"/>
-      <c r="F92" s="243"/>
-      <c r="G92" s="243"/>
-      <c r="H92" s="243"/>
-      <c r="I92" s="243"/>
-      <c r="J92" s="243"/>
-      <c r="K92" s="243"/>
-      <c r="L92" s="243"/>
-      <c r="M92" s="243"/>
-      <c r="N92" s="243"/>
+      <c r="B92" s="283"/>
+      <c r="C92" s="283"/>
+      <c r="D92" s="283"/>
+      <c r="E92" s="283"/>
+      <c r="F92" s="283"/>
+      <c r="G92" s="283"/>
+      <c r="H92" s="283"/>
+      <c r="I92" s="283"/>
+      <c r="J92" s="283"/>
+      <c r="K92" s="283"/>
+      <c r="L92" s="283"/>
+      <c r="M92" s="283"/>
+      <c r="N92" s="283"/>
       <c r="O92" s="120"/>
       <c r="P92" s="120"/>
       <c r="Q92" s="120"/>
@@ -8964,59 +8967,16 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="A45:N45"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="F20:K21"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="F27:J28"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A57:F58"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="A68:J68"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A70:N70"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A92:N92"/>
-    <mergeCell ref="A81:J82"/>
-    <mergeCell ref="A83:N83"/>
-    <mergeCell ref="A76:J76"/>
-    <mergeCell ref="A78:J78"/>
-    <mergeCell ref="A79:J79"/>
-    <mergeCell ref="A80:J80"/>
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="E90:N90"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A46:N47"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A50:J50"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:N10"/>
     <mergeCell ref="A13:N13"/>
@@ -9033,16 +8993,59 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A46:N47"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A92:N92"/>
+    <mergeCell ref="A81:J82"/>
+    <mergeCell ref="A83:N83"/>
+    <mergeCell ref="A76:J76"/>
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="A79:J79"/>
+    <mergeCell ref="A80:J80"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="E90:N90"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="A70:N70"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A57:F58"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="F20:K21"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="F27:J28"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A2:N2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.41" right="0.38" top="0.28000000000000003" bottom="0.18" header="0" footer="0"/>
